--- a/Vacios/vacios_limpios.xlsx
+++ b/Vacios/vacios_limpios.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="242">
   <si>
     <t>CONSECUTIVO</t>
   </si>
@@ -301,22 +301,13 @@
     <t>Days of services</t>
   </si>
   <si>
-    <t>VC1567</t>
-  </si>
-  <si>
-    <t>VC1566</t>
-  </si>
-  <si>
-    <t>MOVIMIENTO VACíO</t>
+    <t>VC1641</t>
   </si>
   <si>
     <t>FIN DE MOVIMIENTO VACíO</t>
   </si>
   <si>
-    <t>01/10/2024 16:56:05</t>
-  </si>
-  <si>
-    <t>01/09/2024 14:50:44</t>
+    <t>01/30/2024 14:42:09</t>
   </si>
   <si>
     <t>Paola Andrea Chacon Acuna</t>
@@ -325,77 +316,438 @@
     <t>Jan-24</t>
   </si>
   <si>
+    <t>FVS297</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>VACIO</t>
+  </si>
+  <si>
+    <t>RENTA FIJA OFS</t>
+  </si>
+  <si>
+    <t>DOMESTIC</t>
+  </si>
+  <si>
+    <t>COL_SCHLUMBERGER</t>
+  </si>
+  <si>
+    <t>PICKUP</t>
+  </si>
+  <si>
+    <t>LIGHT</t>
+  </si>
+  <si>
+    <t>LOGISTICA</t>
+  </si>
+  <si>
+    <t>PUEROT GAITAN/ VILLA ZAIRA</t>
+  </si>
+  <si>
+    <t>CANO SUR</t>
+  </si>
+  <si>
+    <t>2024-01-31 6:00:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 10:00:00</t>
+  </si>
+  <si>
+    <t>GS13929</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para cumplir servicio en caño sur el día de mañana</t>
+  </si>
+  <si>
+    <t>EMPLOYEE TRAVEL</t>
+  </si>
+  <si>
+    <t>VC1643</t>
+  </si>
+  <si>
+    <t>01/30/2024 17:01:36</t>
+  </si>
+  <si>
+    <t>FVN341</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
+  </si>
+  <si>
+    <t>ZIPAQUIRA/ FLORESTA SAN RAFAEL</t>
+  </si>
+  <si>
+    <t>2024-01-31 5:30:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 10:30:00</t>
+  </si>
+  <si>
+    <t>URB12579</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío a zipaquirá para cumplir servicio.</t>
+  </si>
+  <si>
+    <t>VC1644</t>
+  </si>
+  <si>
+    <t>01/30/2024 19:50:29</t>
+  </si>
+  <si>
+    <t>LHV956</t>
+  </si>
+  <si>
+    <t>VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>YOPAL</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00</t>
+  </si>
+  <si>
+    <t>GS13943</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para cumplir servicio en yopal el 01 de febrero</t>
+  </si>
+  <si>
+    <t>VC1645</t>
+  </si>
+  <si>
+    <t>GERENCIAMIENTO Y APROBACIóN</t>
+  </si>
+  <si>
+    <t>01/31/2024 06:26:34</t>
+  </si>
+  <si>
+    <t>TAR552</t>
+  </si>
+  <si>
+    <t>SANTA MARTA</t>
+  </si>
+  <si>
+    <t>BUCARAMANGA</t>
+  </si>
+  <si>
+    <t>2024-01-31 7:00:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00</t>
+  </si>
+  <si>
+    <t>GS13937</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO VACIO</t>
+  </si>
+  <si>
+    <t>VC1646</t>
+  </si>
+  <si>
+    <t>01/31/2024 09:57:25</t>
+  </si>
+  <si>
+    <t>LHV946</t>
+  </si>
+  <si>
+    <t>2024-01-31 11:00:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO PARA CUMPLIR SERVICIO MAÑANA</t>
+  </si>
+  <si>
+    <t>VC1653</t>
+  </si>
+  <si>
+    <t>02/01/2024 14:21:19</t>
+  </si>
+  <si>
+    <t>FVR348</t>
+  </si>
+  <si>
+    <t>LA DORADA/ HOTEL DORADA</t>
+  </si>
+  <si>
+    <t>FUNZA</t>
+  </si>
+  <si>
+    <t>2024-02-01 15:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 22:12:00</t>
+  </si>
+  <si>
+    <t>VC1655</t>
+  </si>
+  <si>
+    <t>02/02/2024 10:02:09</t>
+  </si>
+  <si>
+    <t>FVR349</t>
+  </si>
+  <si>
+    <t>2024-02-02 11:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:45:00</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO SERVICIO VILLANUEVA/ACACIAS</t>
+  </si>
+  <si>
+    <t>VC1656</t>
+  </si>
+  <si>
+    <t>CANCELAR VIAJE.</t>
+  </si>
+  <si>
+    <t>02/02/2024 10:26:20</t>
+  </si>
+  <si>
+    <t>FVS299</t>
+  </si>
+  <si>
+    <t>BOGOTA</t>
+  </si>
+  <si>
+    <t>CHIPAQUE</t>
+  </si>
+  <si>
+    <t>2024-02-04 13:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-04 15:00:00</t>
+  </si>
+  <si>
+    <t>GS13988</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para quedar fuera de bogotá y el día lunes poder cumplir servicio sin problema</t>
+  </si>
+  <si>
+    <t>VC1658</t>
+  </si>
+  <si>
+    <t>02/02/2024 11:22:25</t>
+  </si>
+  <si>
+    <t>FVQ470</t>
+  </si>
+  <si>
+    <t>PUERTO GAITAN</t>
+  </si>
+  <si>
+    <t>2024-02-02 12:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 15:45:00</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO FORTALECER BASE VILLAO</t>
+  </si>
+  <si>
+    <t>VC1661</t>
+  </si>
+  <si>
+    <t>02/04/2024 16:34:49</t>
+  </si>
+  <si>
+    <t>ACACIAS</t>
+  </si>
+  <si>
+    <t>2024-02-04 17:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-04 18:30:00</t>
+  </si>
+  <si>
+    <t>GS14048</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACÍO CUMPLIR GS</t>
+  </si>
+  <si>
+    <t>VC1668</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:33:01</t>
+  </si>
+  <si>
+    <t>2024-02-06 5:31:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 15:30:00</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACIO</t>
+  </si>
+  <si>
+    <t>VC1669</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:35:39</t>
+  </si>
+  <si>
+    <t>2024-02-06 15:34:00</t>
+  </si>
+  <si>
+    <t>VC1670</t>
+  </si>
+  <si>
+    <t>NOVEDADES DE RUTA</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:40:18</t>
+  </si>
+  <si>
+    <t>OASIS</t>
+  </si>
+  <si>
+    <t>2024-02-06 5:32:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 16:00:00</t>
+  </si>
+  <si>
+    <t>VC1671</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:44:47</t>
+  </si>
+  <si>
+    <t>FVQ486</t>
+  </si>
+  <si>
+    <t>CASTILLA</t>
+  </si>
+  <si>
+    <t>VC1672</t>
+  </si>
+  <si>
+    <t>02/05/2024 19:48:55</t>
+  </si>
+  <si>
+    <t>2024-02-06 15:31:00</t>
+  </si>
+  <si>
+    <t>MOVIMIENTO EN VACÍO</t>
+  </si>
+  <si>
+    <t>VC1674</t>
+  </si>
+  <si>
+    <t>02/06/2024 09:24:14</t>
+  </si>
+  <si>
+    <t>LHT624</t>
+  </si>
+  <si>
+    <t>FUNDACION/ HOTEL SAN FERNANDO</t>
+  </si>
+  <si>
+    <t>2024-02-06 10:30:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 14:30:00</t>
+  </si>
+  <si>
+    <t>GS14032</t>
+  </si>
+  <si>
+    <t>Movimiento vacío para cumplir servicio en Fundación</t>
+  </si>
+  <si>
+    <t>VC1675</t>
+  </si>
+  <si>
+    <t>02/06/2024 09:24:40</t>
+  </si>
+  <si>
+    <t>FVQ494</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para cumplir cita de mantenimiento</t>
+  </si>
+  <si>
+    <t>VC1676</t>
+  </si>
+  <si>
+    <t>02/06/2024 11:40:21</t>
+  </si>
+  <si>
+    <t>FVN737</t>
+  </si>
+  <si>
+    <t>MONTERIA</t>
+  </si>
+  <si>
+    <t>BOSCONIA</t>
+  </si>
+  <si>
+    <t>2024-02-06 12:00:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 18:00:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para llegar a barrancabermeja el día de mañana</t>
+  </si>
+  <si>
+    <t>VC1677</t>
+  </si>
+  <si>
+    <t>02/06/2024 12:15:51</t>
+  </si>
+  <si>
+    <t>LHT229</t>
+  </si>
+  <si>
+    <t>FLORIDABLANCA/ HOTEL FLORIDABLANCA</t>
+  </si>
+  <si>
+    <t>BARBOSA/ HOTEL BARBOSA</t>
+  </si>
+  <si>
+    <t>2024-02-06 13:00:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para llegar a Bogotá el día de mañana</t>
+  </si>
+  <si>
+    <t>VC1678</t>
+  </si>
+  <si>
+    <t>02/06/2024 14:57:19</t>
+  </si>
+  <si>
     <t>FVQ496</t>
   </si>
   <si>
-    <t>FVR346</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>VACIO</t>
-  </si>
-  <si>
-    <t>RENTA FIJA OFS</t>
-  </si>
-  <si>
-    <t>DOMESTIC</t>
-  </si>
-  <si>
-    <t>COL_SCHLUMBERGER</t>
-  </si>
-  <si>
-    <t>PICKUP</t>
-  </si>
-  <si>
-    <t>LIGHT</t>
-  </si>
-  <si>
-    <t>LOGISTICA</t>
-  </si>
-  <si>
-    <t>YOPAL</t>
-  </si>
-  <si>
-    <t>SOGAMOSO</t>
-  </si>
-  <si>
-    <t>TAURAMENA</t>
-  </si>
-  <si>
-    <t>MOSQUERA/ CENTRO COMERCIAL SAN JORGE</t>
-  </si>
-  <si>
-    <t>No se pudo encontrar la ubicación para 'MOSQUERA/ CENTRO COMERCIAL SAN JORGE'</t>
-  </si>
-  <si>
-    <t>2024-01-10 17:00:00</t>
-  </si>
-  <si>
-    <t>2024-01-10 7:00:00</t>
-  </si>
-  <si>
-    <t>2024-01-10 19:00:00</t>
-  </si>
-  <si>
-    <t>2024-01-10 12:00:00</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío para cumplir en tauramena</t>
-  </si>
-  <si>
-    <t>Movimiento en vacío a revisión e inspección del vehículo por fallas</t>
-  </si>
-  <si>
-    <t>EMPLOYEE TRAVEL</t>
+    <t>2024-02-06 15:15:00</t>
+  </si>
+  <si>
+    <t>2024-02-06 19:15:00</t>
+  </si>
+  <si>
+    <t>Movimiento en vacío para cumplir servicio mañana en Villavicencio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,12 +756,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,7 +776,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -430,34 +786,64 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="8">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -466,10 +852,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -507,69 +893,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -593,54 +981,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -650,7 +1037,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -659,7 +1046,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -668,7 +1055,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -676,10 +1063,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -708,7 +1095,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -721,13 +1108,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -745,14 +1131,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CQ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:CQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="76" max="76" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="77" max="77" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="78" max="78" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="79" max="79" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="80" max="80" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="81" max="81" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="82" max="82" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="83" max="83" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="84" max="84" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="85" max="85" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="86" max="86" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="87" max="87" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="88" max="88" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="89" max="89" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="90" max="90" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="91" max="91" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="92" max="92" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="93" max="93" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="94" max="94" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="95" max="95" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:95">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -807,10 +1293,10 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -822,7 +1308,7 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -834,7 +1320,7 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
@@ -906,7 +1392,7 @@
       <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BA1" s="1" t="s">
@@ -1035,191 +1521,3131 @@
       <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:95">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="K2" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S2" s="4">
+        <v>527758</v>
+      </c>
+      <c r="T2" s="4">
+        <v>1900077787</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="X2" s="5">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
+      <c r="BN2" s="3"/>
+      <c r="BO2" s="3"/>
+      <c r="BP2" s="3"/>
+      <c r="BQ2" s="3"/>
+      <c r="BR2" s="3"/>
+      <c r="BS2" s="3"/>
+      <c r="BT2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU2" s="3"/>
+      <c r="BV2" s="3"/>
+      <c r="BW2" s="3"/>
+      <c r="BX2" s="3"/>
+      <c r="BY2" s="3"/>
+      <c r="BZ2" s="3"/>
+      <c r="CA2" s="3"/>
+      <c r="CB2" s="3"/>
+      <c r="CC2" s="3"/>
+      <c r="CD2" s="3"/>
+      <c r="CE2" s="3"/>
+      <c r="CF2" s="3"/>
+      <c r="CG2" s="3"/>
+      <c r="CH2" s="3"/>
+      <c r="CI2" s="3"/>
+      <c r="CJ2" s="3"/>
+      <c r="CK2" s="3"/>
+      <c r="CL2" s="3"/>
+      <c r="CM2" s="3"/>
+      <c r="CN2" s="3"/>
+      <c r="CO2" s="3"/>
+      <c r="CP2" s="3"/>
+      <c r="CQ2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S3" s="4">
+        <v>634727</v>
+      </c>
+      <c r="T3" s="4">
+        <v>1900097894</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S2">
-        <v>689136</v>
-      </c>
-      <c r="T2">
-        <v>1900099482</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="5">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
+      <c r="BN3" s="3"/>
+      <c r="BO3" s="3"/>
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3"/>
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3"/>
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="4">
+        <v>699971</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1900065959</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="4">
+        <v>275</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="V2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="AA4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="X2">
-        <v>64</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB2">
+      <c r="H5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="4">
+        <v>776945</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1900022361</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="X5" s="4">
+        <v>585</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB5" s="4">
         <v>600000</v>
       </c>
-      <c r="AZ2">
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB5" s="3"/>
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BE5" s="3"/>
+      <c r="BF5" s="3"/>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="3"/>
+      <c r="BK5" s="3"/>
+      <c r="BL5" s="3"/>
+      <c r="BM5" s="3"/>
+      <c r="BN5" s="3"/>
+      <c r="BO5" s="3"/>
+      <c r="BP5" s="3"/>
+      <c r="BQ5" s="3"/>
+      <c r="BR5" s="3"/>
+      <c r="BS5" s="3"/>
+      <c r="BT5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU5" s="3"/>
+      <c r="BV5" s="3"/>
+      <c r="BW5" s="3"/>
+      <c r="BX5" s="3"/>
+      <c r="BY5" s="3"/>
+      <c r="BZ5" s="3"/>
+      <c r="CA5" s="3"/>
+      <c r="CB5" s="3"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
+      <c r="CE5" s="3"/>
+      <c r="CF5" s="3"/>
+      <c r="CG5" s="3"/>
+      <c r="CH5" s="3"/>
+      <c r="CI5" s="3"/>
+      <c r="CJ5" s="3"/>
+      <c r="CK5" s="3"/>
+      <c r="CL5" s="3"/>
+      <c r="CM5" s="3"/>
+      <c r="CN5" s="3"/>
+      <c r="CO5" s="3"/>
+      <c r="CP5" s="3"/>
+      <c r="CQ5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="4">
+        <v>537872</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1900048161</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="X6" s="4">
+        <v>275</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB6" s="3"/>
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="3"/>
+      <c r="BF6" s="3"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="3"/>
+      <c r="BL6" s="3"/>
+      <c r="BM6" s="3"/>
+      <c r="BN6" s="3"/>
+      <c r="BO6" s="3"/>
+      <c r="BP6" s="3"/>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
+      <c r="CE6" s="3"/>
+      <c r="CF6" s="3"/>
+      <c r="CG6" s="3"/>
+      <c r="CH6" s="3"/>
+      <c r="CI6" s="3"/>
+      <c r="CJ6" s="3"/>
+      <c r="CK6" s="3"/>
+      <c r="CL6" s="3"/>
+      <c r="CM6" s="3"/>
+      <c r="CN6" s="3"/>
+      <c r="CO6" s="3"/>
+      <c r="CP6" s="3"/>
+      <c r="CQ6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="4">
+        <v>470693</v>
+      </c>
+      <c r="T7" s="4">
+        <v>1900069315</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X7" s="4">
+        <v>771</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="5"/>
+      <c r="BA7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB7" s="3"/>
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BE7" s="3"/>
+      <c r="BF7" s="3"/>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="3"/>
+      <c r="BK7" s="3"/>
+      <c r="BL7" s="3"/>
+      <c r="BM7" s="3"/>
+      <c r="BN7" s="3"/>
+      <c r="BO7" s="3"/>
+      <c r="BP7" s="3"/>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
+      <c r="CE7" s="3"/>
+      <c r="CF7" s="3"/>
+      <c r="CG7" s="3"/>
+      <c r="CH7" s="3"/>
+      <c r="CI7" s="3"/>
+      <c r="CJ7" s="3"/>
+      <c r="CK7" s="3"/>
+      <c r="CL7" s="3"/>
+      <c r="CM7" s="3"/>
+      <c r="CN7" s="3"/>
+      <c r="CO7" s="3"/>
+      <c r="CP7" s="3"/>
+      <c r="CQ7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="4">
+        <v>689142</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1900099499</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" s="4">
+        <v>129</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB8" s="3"/>
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BE8" s="3"/>
+      <c r="BF8" s="3"/>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="3"/>
+      <c r="BK8" s="3"/>
+      <c r="BL8" s="3"/>
+      <c r="BM8" s="3"/>
+      <c r="BN8" s="3"/>
+      <c r="BO8" s="3"/>
+      <c r="BP8" s="3"/>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
+      <c r="CE8" s="3"/>
+      <c r="CF8" s="3"/>
+      <c r="CG8" s="3"/>
+      <c r="CH8" s="3"/>
+      <c r="CI8" s="3"/>
+      <c r="CJ8" s="3"/>
+      <c r="CK8" s="3"/>
+      <c r="CL8" s="3"/>
+      <c r="CM8" s="3"/>
+      <c r="CN8" s="3"/>
+      <c r="CO8" s="3"/>
+      <c r="CP8" s="3"/>
+      <c r="CQ8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="4">
+        <v>526845</v>
+      </c>
+      <c r="T9" s="4">
+        <v>1900060816</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="X9" s="4">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB9" s="3"/>
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BE9" s="3"/>
+      <c r="BF9" s="3"/>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="3"/>
+      <c r="BK9" s="3"/>
+      <c r="BL9" s="3"/>
+      <c r="BM9" s="3"/>
+      <c r="BN9" s="3"/>
+      <c r="BO9" s="3"/>
+      <c r="BP9" s="3"/>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
+      <c r="CE9" s="3"/>
+      <c r="CF9" s="3"/>
+      <c r="CG9" s="3"/>
+      <c r="CH9" s="3"/>
+      <c r="CI9" s="3"/>
+      <c r="CJ9" s="3"/>
+      <c r="CK9" s="3"/>
+      <c r="CL9" s="3"/>
+      <c r="CM9" s="3"/>
+      <c r="CN9" s="3"/>
+      <c r="CO9" s="3"/>
+      <c r="CP9" s="3"/>
+      <c r="CQ9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="4">
+        <v>642798</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1900097892</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="4">
+        <v>201</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="5"/>
+      <c r="BA10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB10" s="3"/>
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BE10" s="3"/>
+      <c r="BF10" s="3"/>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="3"/>
+      <c r="BK10" s="3"/>
+      <c r="BL10" s="3"/>
+      <c r="BM10" s="3"/>
+      <c r="BN10" s="3"/>
+      <c r="BO10" s="3"/>
+      <c r="BP10" s="3"/>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
+      <c r="CE10" s="3"/>
+      <c r="CF10" s="3"/>
+      <c r="CG10" s="3"/>
+      <c r="CH10" s="3"/>
+      <c r="CI10" s="3"/>
+      <c r="CJ10" s="3"/>
+      <c r="CK10" s="3"/>
+      <c r="CL10" s="3"/>
+      <c r="CM10" s="3"/>
+      <c r="CN10" s="3"/>
+      <c r="CO10" s="3"/>
+      <c r="CP10" s="3"/>
+      <c r="CQ10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="4">
+        <v>689142</v>
+      </c>
+      <c r="T11" s="4">
+        <v>1900099499</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" s="4">
+        <v>43</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
+      <c r="BM11" s="3"/>
+      <c r="BN11" s="3"/>
+      <c r="BO11" s="3"/>
+      <c r="BP11" s="3"/>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="3"/>
+      <c r="CF11" s="3"/>
+      <c r="CG11" s="3"/>
+      <c r="CH11" s="3"/>
+      <c r="CI11" s="3"/>
+      <c r="CJ11" s="3"/>
+      <c r="CK11" s="3"/>
+      <c r="CL11" s="3"/>
+      <c r="CM11" s="3"/>
+      <c r="CN11" s="3"/>
+      <c r="CO11" s="3"/>
+      <c r="CP11" s="3"/>
+      <c r="CQ11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="4">
+        <v>699971</v>
+      </c>
+      <c r="T12" s="4">
+        <v>1900065959</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="X12" s="4">
+        <v>317</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
+      <c r="BM12" s="3"/>
+      <c r="BN12" s="3"/>
+      <c r="BO12" s="3"/>
+      <c r="BP12" s="3"/>
+      <c r="BQ12" s="3"/>
+      <c r="BR12" s="3"/>
+      <c r="BS12" s="3"/>
+      <c r="BT12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU12" s="3"/>
+      <c r="BV12" s="3"/>
+      <c r="BW12" s="3"/>
+      <c r="BX12" s="3"/>
+      <c r="BY12" s="3"/>
+      <c r="BZ12" s="3"/>
+      <c r="CA12" s="3"/>
+      <c r="CB12" s="3"/>
+      <c r="CC12" s="3"/>
+      <c r="CD12" s="3"/>
+      <c r="CE12" s="3"/>
+      <c r="CF12" s="3"/>
+      <c r="CG12" s="3"/>
+      <c r="CH12" s="3"/>
+      <c r="CI12" s="3"/>
+      <c r="CJ12" s="3"/>
+      <c r="CK12" s="3"/>
+      <c r="CL12" s="3"/>
+      <c r="CM12" s="3"/>
+      <c r="CN12" s="3"/>
+      <c r="CO12" s="3"/>
+      <c r="CP12" s="3"/>
+      <c r="CQ12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="4">
+        <v>537872</v>
+      </c>
+      <c r="T13" s="4">
+        <v>1900048161</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="X13" s="4">
+        <v>317</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="AZ13" s="5"/>
+      <c r="BA13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB13" s="3"/>
+      <c r="BC13" s="3"/>
+      <c r="BD13" s="3"/>
+      <c r="BE13" s="3"/>
+      <c r="BF13" s="3"/>
+      <c r="BG13" s="3"/>
+      <c r="BH13" s="3"/>
+      <c r="BI13" s="3"/>
+      <c r="BJ13" s="3"/>
+      <c r="BK13" s="3"/>
+      <c r="BL13" s="3"/>
+      <c r="BM13" s="3"/>
+      <c r="BN13" s="3"/>
+      <c r="BO13" s="3"/>
+      <c r="BP13" s="3"/>
+      <c r="BQ13" s="3"/>
+      <c r="BR13" s="3"/>
+      <c r="BS13" s="3"/>
+      <c r="BT13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU13" s="3"/>
+      <c r="BV13" s="3"/>
+      <c r="BW13" s="3"/>
+      <c r="BX13" s="3"/>
+      <c r="BY13" s="3"/>
+      <c r="BZ13" s="3"/>
+      <c r="CA13" s="3"/>
+      <c r="CB13" s="3"/>
+      <c r="CC13" s="3"/>
+      <c r="CD13" s="3"/>
+      <c r="CE13" s="3"/>
+      <c r="CF13" s="3"/>
+      <c r="CG13" s="3"/>
+      <c r="CH13" s="3"/>
+      <c r="CI13" s="3"/>
+      <c r="CJ13" s="3"/>
+      <c r="CK13" s="3"/>
+      <c r="CL13" s="3"/>
+      <c r="CM13" s="3"/>
+      <c r="CN13" s="3"/>
+      <c r="CO13" s="3"/>
+      <c r="CP13" s="3"/>
+      <c r="CQ13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" s="4">
+        <v>642501</v>
+      </c>
+      <c r="T14" s="4">
+        <v>1900074948</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="X14" s="4">
+        <v>153</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
+      <c r="BJ14" s="3"/>
+      <c r="BK14" s="3"/>
+      <c r="BL14" s="3"/>
+      <c r="BM14" s="3"/>
+      <c r="BN14" s="3"/>
+      <c r="BO14" s="3"/>
+      <c r="BP14" s="3"/>
+      <c r="BQ14" s="3"/>
+      <c r="BR14" s="3"/>
+      <c r="BS14" s="3"/>
+      <c r="BT14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU14" s="3"/>
+      <c r="BV14" s="3"/>
+      <c r="BW14" s="3"/>
+      <c r="BX14" s="3"/>
+      <c r="BY14" s="3"/>
+      <c r="BZ14" s="3"/>
+      <c r="CA14" s="3"/>
+      <c r="CB14" s="3"/>
+      <c r="CC14" s="3"/>
+      <c r="CD14" s="3"/>
+      <c r="CE14" s="3"/>
+      <c r="CF14" s="3"/>
+      <c r="CG14" s="3"/>
+      <c r="CH14" s="3"/>
+      <c r="CI14" s="3"/>
+      <c r="CJ14" s="3"/>
+      <c r="CK14" s="3"/>
+      <c r="CL14" s="3"/>
+      <c r="CM14" s="3"/>
+      <c r="CN14" s="3"/>
+      <c r="CO14" s="3"/>
+      <c r="CP14" s="3"/>
+      <c r="CQ14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" s="4">
+        <v>526817</v>
+      </c>
+      <c r="T15" s="4">
+        <v>1900069315</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="X15" s="4">
+        <v>99</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="AZ15" s="5"/>
+      <c r="BA15" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB15" s="3"/>
+      <c r="BC15" s="3"/>
+      <c r="BD15" s="3"/>
+      <c r="BE15" s="3"/>
+      <c r="BF15" s="3"/>
+      <c r="BG15" s="3"/>
+      <c r="BH15" s="3"/>
+      <c r="BI15" s="3"/>
+      <c r="BJ15" s="3"/>
+      <c r="BK15" s="3"/>
+      <c r="BL15" s="3"/>
+      <c r="BM15" s="3"/>
+      <c r="BN15" s="3"/>
+      <c r="BO15" s="3"/>
+      <c r="BP15" s="3"/>
+      <c r="BQ15" s="3"/>
+      <c r="BR15" s="3"/>
+      <c r="BS15" s="3"/>
+      <c r="BT15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU15" s="3"/>
+      <c r="BV15" s="3"/>
+      <c r="BW15" s="3"/>
+      <c r="BX15" s="3"/>
+      <c r="BY15" s="3"/>
+      <c r="BZ15" s="3"/>
+      <c r="CA15" s="3"/>
+      <c r="CB15" s="3"/>
+      <c r="CC15" s="3"/>
+      <c r="CD15" s="3"/>
+      <c r="CE15" s="3"/>
+      <c r="CF15" s="3"/>
+      <c r="CG15" s="3"/>
+      <c r="CH15" s="3"/>
+      <c r="CI15" s="3"/>
+      <c r="CJ15" s="3"/>
+      <c r="CK15" s="3"/>
+      <c r="CL15" s="3"/>
+      <c r="CM15" s="3"/>
+      <c r="CN15" s="3"/>
+      <c r="CO15" s="3"/>
+      <c r="CP15" s="3"/>
+      <c r="CQ15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="4">
+        <v>642798</v>
+      </c>
+      <c r="T16" s="4">
+        <v>1900097892</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="X16" s="4">
+        <v>108</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB16" s="3"/>
+      <c r="BC16" s="3"/>
+      <c r="BD16" s="3"/>
+      <c r="BE16" s="3"/>
+      <c r="BF16" s="3"/>
+      <c r="BG16" s="3"/>
+      <c r="BH16" s="3"/>
+      <c r="BI16" s="3"/>
+      <c r="BJ16" s="3"/>
+      <c r="BK16" s="3"/>
+      <c r="BL16" s="3"/>
+      <c r="BM16" s="3"/>
+      <c r="BN16" s="3"/>
+      <c r="BO16" s="3"/>
+      <c r="BP16" s="3"/>
+      <c r="BQ16" s="3"/>
+      <c r="BR16" s="3"/>
+      <c r="BS16" s="3"/>
+      <c r="BT16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU16" s="3"/>
+      <c r="BV16" s="3"/>
+      <c r="BW16" s="3"/>
+      <c r="BX16" s="3"/>
+      <c r="BY16" s="3"/>
+      <c r="BZ16" s="3"/>
+      <c r="CA16" s="3"/>
+      <c r="CB16" s="3"/>
+      <c r="CC16" s="3"/>
+      <c r="CD16" s="3"/>
+      <c r="CE16" s="3"/>
+      <c r="CF16" s="3"/>
+      <c r="CG16" s="3"/>
+      <c r="CH16" s="3"/>
+      <c r="CI16" s="3"/>
+      <c r="CJ16" s="3"/>
+      <c r="CK16" s="3"/>
+      <c r="CL16" s="3"/>
+      <c r="CM16" s="3"/>
+      <c r="CN16" s="3"/>
+      <c r="CO16" s="3"/>
+      <c r="CP16" s="3"/>
+      <c r="CQ16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S17" s="4">
+        <v>528217</v>
+      </c>
+      <c r="T17" s="4">
+        <v>1900076427</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="X17" s="5">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="BA17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
+      <c r="BP17" s="3"/>
+      <c r="BQ17" s="3"/>
+      <c r="BR17" s="3"/>
+      <c r="BS17" s="3"/>
+      <c r="BT17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU17" s="3"/>
+      <c r="BV17" s="3"/>
+      <c r="BW17" s="3"/>
+      <c r="BX17" s="3"/>
+      <c r="BY17" s="3"/>
+      <c r="BZ17" s="3"/>
+      <c r="CA17" s="3"/>
+      <c r="CB17" s="3"/>
+      <c r="CC17" s="3"/>
+      <c r="CD17" s="3"/>
+      <c r="CE17" s="3"/>
+      <c r="CF17" s="3"/>
+      <c r="CG17" s="3"/>
+      <c r="CH17" s="3"/>
+      <c r="CI17" s="3"/>
+      <c r="CJ17" s="3"/>
+      <c r="CK17" s="3"/>
+      <c r="CL17" s="3"/>
+      <c r="CM17" s="3"/>
+      <c r="CN17" s="3"/>
+      <c r="CO17" s="3"/>
+      <c r="CP17" s="3"/>
+      <c r="CQ17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S18" s="4">
+        <v>526572</v>
+      </c>
+      <c r="T18" s="4">
+        <v>3123708924</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="X18" s="5">
+        <v>200</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="4">
         <v>0</v>
       </c>
-      <c r="BA2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ2">
+      <c r="BA18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
+      <c r="BP18" s="3"/>
+      <c r="BQ18" s="3"/>
+      <c r="BR18" s="3"/>
+      <c r="BS18" s="3"/>
+      <c r="BT18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU18" s="3"/>
+      <c r="BV18" s="3"/>
+      <c r="BW18" s="3"/>
+      <c r="BX18" s="3"/>
+      <c r="BY18" s="3"/>
+      <c r="BZ18" s="3"/>
+      <c r="CA18" s="3"/>
+      <c r="CB18" s="3"/>
+      <c r="CC18" s="3"/>
+      <c r="CD18" s="3"/>
+      <c r="CE18" s="3"/>
+      <c r="CF18" s="3"/>
+      <c r="CG18" s="3"/>
+      <c r="CH18" s="3"/>
+      <c r="CI18" s="3"/>
+      <c r="CJ18" s="3"/>
+      <c r="CK18" s="3"/>
+      <c r="CL18" s="3"/>
+      <c r="CM18" s="3"/>
+      <c r="CN18" s="3"/>
+      <c r="CO18" s="3"/>
+      <c r="CP18" s="3"/>
+      <c r="CQ18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:95">
-      <c r="A3" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E3" t="s">
+      <c r="K19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S19" s="4">
+        <v>526576</v>
+      </c>
+      <c r="T19" s="4">
+        <v>1900025173</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="X19" s="4">
+        <v>362</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
+      <c r="BP19" s="3"/>
+      <c r="BQ19" s="3"/>
+      <c r="BR19" s="3"/>
+      <c r="BS19" s="3"/>
+      <c r="BT19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU19" s="3"/>
+      <c r="BV19" s="3"/>
+      <c r="BW19" s="3"/>
+      <c r="BX19" s="3"/>
+      <c r="BY19" s="3"/>
+      <c r="BZ19" s="3"/>
+      <c r="CA19" s="3"/>
+      <c r="CB19" s="3"/>
+      <c r="CC19" s="3"/>
+      <c r="CD19" s="3"/>
+      <c r="CE19" s="3"/>
+      <c r="CF19" s="3"/>
+      <c r="CG19" s="3"/>
+      <c r="CH19" s="3"/>
+      <c r="CI19" s="3"/>
+      <c r="CJ19" s="3"/>
+      <c r="CK19" s="3"/>
+      <c r="CL19" s="3"/>
+      <c r="CM19" s="3"/>
+      <c r="CN19" s="3"/>
+      <c r="CO19" s="3"/>
+      <c r="CP19" s="3"/>
+      <c r="CQ19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="S20" s="4">
+        <v>527051</v>
+      </c>
+      <c r="T20" s="4">
+        <v>1900022149</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="X20" s="4">
+        <v>214</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>600000</v>
+      </c>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
+      <c r="BP20" s="3"/>
+      <c r="BQ20" s="3"/>
+      <c r="BR20" s="3"/>
+      <c r="BS20" s="3"/>
+      <c r="BT20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU20" s="3"/>
+      <c r="BV20" s="3"/>
+      <c r="BW20" s="3"/>
+      <c r="BX20" s="3"/>
+      <c r="BY20" s="3"/>
+      <c r="BZ20" s="3"/>
+      <c r="CA20" s="3"/>
+      <c r="CB20" s="3"/>
+      <c r="CC20" s="3"/>
+      <c r="CD20" s="3"/>
+      <c r="CE20" s="3"/>
+      <c r="CF20" s="3"/>
+      <c r="CG20" s="3"/>
+      <c r="CH20" s="3"/>
+      <c r="CI20" s="3"/>
+      <c r="CJ20" s="3"/>
+      <c r="CK20" s="3"/>
+      <c r="CL20" s="3"/>
+      <c r="CM20" s="3"/>
+      <c r="CN20" s="3"/>
+      <c r="CO20" s="3"/>
+      <c r="CP20" s="3"/>
+      <c r="CQ20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="P21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R21" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S21" s="4">
+        <v>702180</v>
+      </c>
+      <c r="T21" s="4">
+        <v>1900069315</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="P3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R3" t="s">
-        <v>111</v>
-      </c>
-      <c r="S3">
-        <v>470693</v>
-      </c>
-      <c r="T3">
-        <v>1900074952</v>
-      </c>
-      <c r="U3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V3" t="s">
-        <v>114</v>
-      </c>
-      <c r="W3" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB3">
+      <c r="V21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X21" s="4">
+        <v>145</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB21" s="4">
         <v>600000</v>
       </c>
-      <c r="AZ3">
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="4">
         <v>0</v>
       </c>
-      <c r="BA3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CQ3">
+      <c r="BA21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
+      <c r="BP21" s="3"/>
+      <c r="BQ21" s="3"/>
+      <c r="BR21" s="3"/>
+      <c r="BS21" s="3"/>
+      <c r="BT21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU21" s="3"/>
+      <c r="BV21" s="3"/>
+      <c r="BW21" s="3"/>
+      <c r="BX21" s="3"/>
+      <c r="BY21" s="3"/>
+      <c r="BZ21" s="3"/>
+      <c r="CA21" s="3"/>
+      <c r="CB21" s="3"/>
+      <c r="CC21" s="3"/>
+      <c r="CD21" s="3"/>
+      <c r="CE21" s="3"/>
+      <c r="CF21" s="3"/>
+      <c r="CG21" s="3"/>
+      <c r="CH21" s="3"/>
+      <c r="CI21" s="3"/>
+      <c r="CJ21" s="3"/>
+      <c r="CK21" s="3"/>
+      <c r="CL21" s="3"/>
+      <c r="CM21" s="3"/>
+      <c r="CN21" s="3"/>
+      <c r="CO21" s="3"/>
+      <c r="CP21" s="3"/>
+      <c r="CQ21" s="4">
         <v>1</v>
       </c>
     </row>
